--- a/extracted_features.xlsx
+++ b/extracted_features.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninaleach/Documents/GitHub/Thesis/masters_thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1215C1DB-92B9-644D-9F04-D67E7C06824F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EC82F6-D012-914C-8AE8-D1C5CE1C117C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{25FBA88E-EC9F-C04D-861F-F634C314553C}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{25FBA88E-EC9F-C04D-861F-F634C314553C}"/>
   </bookViews>
   <sheets>
     <sheet name="Include" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1797" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="248">
   <si>
     <t>file_name</t>
   </si>
@@ -740,6 +740,48 @@
   </si>
   <si>
     <t>location</t>
+  </si>
+  <si>
+    <t>confusion_matrix_diagonal</t>
+  </si>
+  <si>
+    <t>landcover_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no overall accuracy </t>
+  </si>
+  <si>
+    <t>landcover_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rull based not machine learning </t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>aquaculture_2</t>
+  </si>
+  <si>
+    <t>10.1016/j.marpolbul.2022.113901</t>
+  </si>
+  <si>
+    <t>B3; B4; B5; B8; B8A; B11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not machine learning? </t>
+  </si>
+  <si>
+    <t>test_set</t>
+  </si>
+  <si>
+    <t>pixels</t>
+  </si>
+  <si>
+    <t>unclear</t>
+  </si>
+  <si>
+    <t>training</t>
   </si>
 </sst>
 </file>
@@ -818,7 +860,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -856,6 +898,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1192,11 +1237,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A236D50-4684-D141-BBDF-37C3652D339E}">
-  <dimension ref="A1:Z139"/>
+  <dimension ref="A1:AB139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="76" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA102" sqref="AA102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1209,11 +1254,11 @@
     <col min="8" max="8" width="22.5" customWidth="1"/>
     <col min="11" max="11" width="18.5" customWidth="1"/>
     <col min="13" max="13" width="15.83203125" style="7"/>
-    <col min="24" max="24" width="63" customWidth="1"/>
-    <col min="25" max="25" width="23.5" customWidth="1"/>
+    <col min="26" max="26" width="63" customWidth="1"/>
+    <col min="27" max="27" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1266,7 +1311,7 @@
         <v>14</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>15</v>
+        <v>234</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>218</v>
@@ -1284,13 +1329,19 @@
         <v>16</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="AA1" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -1364,12 +1415,12 @@
       <c r="W2" s="3">
         <v>1</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Y2"/>
-    </row>
-    <row r="3" spans="1:26" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:28" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -1444,12 +1495,12 @@
       <c r="W3" s="3">
         <v>1</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Y3"/>
-    </row>
-    <row r="4" spans="1:26" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:28" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1524,12 +1575,12 @@
       <c r="W4" s="3">
         <v>1</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="Y4"/>
-    </row>
-    <row r="5" spans="1:26" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:28" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -1604,12 +1655,12 @@
       <c r="W5" s="3">
         <v>1</v>
       </c>
-      <c r="X5" s="3" t="s">
+      <c r="Z5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Y5"/>
-    </row>
-    <row r="6" spans="1:26" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:28" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -1682,12 +1733,12 @@
       <c r="W6" s="3">
         <v>1</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="Z6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Y6"/>
-    </row>
-    <row r="7" spans="1:26" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AA6"/>
+    </row>
+    <row r="7" spans="1:28" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -1760,12 +1811,12 @@
       <c r="W7" s="3">
         <v>1</v>
       </c>
-      <c r="X7" s="3" t="s">
+      <c r="Z7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="Y7"/>
-    </row>
-    <row r="8" spans="1:26" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="AA7"/>
+    </row>
+    <row r="8" spans="1:28" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>32</v>
       </c>
@@ -1793,7 +1844,7 @@
       <c r="I8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="17">
         <v>1</v>
       </c>
       <c r="K8" s="3" t="s">
@@ -1839,12 +1890,12 @@
       <c r="W8" s="3">
         <v>1</v>
       </c>
-      <c r="X8" s="3" t="s">
+      <c r="Z8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="Y8"/>
-    </row>
-    <row r="9" spans="1:26" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="AA8"/>
+    </row>
+    <row r="9" spans="1:28" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -1872,7 +1923,7 @@
       <c r="I9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="17">
         <v>1</v>
       </c>
       <c r="K9" s="3" t="s">
@@ -1914,12 +1965,12 @@
       <c r="W9" s="3">
         <v>0</v>
       </c>
-      <c r="X9" s="3" t="s">
+      <c r="Z9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="Y9"/>
-    </row>
-    <row r="10" spans="1:26" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AA9"/>
+    </row>
+    <row r="10" spans="1:28" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>56</v>
       </c>
@@ -1991,14 +2042,17 @@
       <c r="W10" s="3">
         <v>0</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="Y10" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="Z10" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="AA10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>56</v>
       </c>
@@ -2070,12 +2124,12 @@
       <c r="W11" s="3">
         <v>0</v>
       </c>
-      <c r="X11" s="3" t="s">
+      <c r="Z11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Y11"/>
-    </row>
-    <row r="12" spans="1:26" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AA11"/>
+    </row>
+    <row r="12" spans="1:28" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>56</v>
       </c>
@@ -2147,12 +2201,12 @@
       <c r="W12" s="3">
         <v>0</v>
       </c>
-      <c r="X12" s="3" t="s">
+      <c r="Z12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Y12"/>
-    </row>
-    <row r="13" spans="1:26" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="AA12"/>
+    </row>
+    <row r="13" spans="1:28" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>66</v>
       </c>
@@ -2226,12 +2280,12 @@
       <c r="W13" s="3">
         <v>1</v>
       </c>
-      <c r="X13" s="3" t="s">
+      <c r="Z13" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Y13"/>
-    </row>
-    <row r="14" spans="1:26" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="AA13"/>
+    </row>
+    <row r="14" spans="1:28" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>66</v>
       </c>
@@ -2304,15 +2358,15 @@
       <c r="W14" s="3">
         <v>1</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Y14"/>
-      <c r="Z14" s="3" t="s">
+      <c r="AA14"/>
+      <c r="AB14" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>66</v>
       </c>
@@ -2385,15 +2439,15 @@
       <c r="W15" s="3">
         <v>1</v>
       </c>
-      <c r="X15" s="3" t="s">
+      <c r="Z15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Y15"/>
-      <c r="Z15" s="3" t="s">
+      <c r="AA15"/>
+      <c r="AB15" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>66</v>
       </c>
@@ -2466,15 +2520,15 @@
       <c r="W16" s="3">
         <v>1</v>
       </c>
-      <c r="X16" s="3" t="s">
+      <c r="Z16" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Y16"/>
-      <c r="Z16" s="3" t="s">
+      <c r="AA16"/>
+      <c r="AB16" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>66</v>
       </c>
@@ -2547,15 +2601,15 @@
       <c r="W17" s="3">
         <v>1</v>
       </c>
-      <c r="X17" s="3" t="s">
+      <c r="Z17" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Y17"/>
-      <c r="Z17" s="3" t="s">
+      <c r="AA17"/>
+      <c r="AB17" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:26" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>66</v>
       </c>
@@ -2628,15 +2682,15 @@
       <c r="W18" s="3">
         <v>1</v>
       </c>
-      <c r="X18" s="3" t="s">
+      <c r="Z18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Y18"/>
-      <c r="Z18" s="3" t="s">
+      <c r="AA18"/>
+      <c r="AB18" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>66</v>
       </c>
@@ -2709,15 +2763,15 @@
       <c r="W19" s="3">
         <v>1</v>
       </c>
-      <c r="X19" s="3" t="s">
+      <c r="Z19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="Y19"/>
-      <c r="Z19" s="3" t="s">
+      <c r="AA19"/>
+      <c r="AB19" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:26" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -2788,12 +2842,12 @@
       <c r="W20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X20" s="3" t="s">
+      <c r="Z20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Y20"/>
-    </row>
-    <row r="21" spans="1:26" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="AA20"/>
+    </row>
+    <row r="21" spans="1:28" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -2864,12 +2918,12 @@
       <c r="W21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X21" s="3" t="s">
+      <c r="Z21" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Y21"/>
-    </row>
-    <row r="22" spans="1:26" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AA21"/>
+    </row>
+    <row r="22" spans="1:28" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>75</v>
       </c>
@@ -2941,14 +2995,14 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-      <c r="X22" s="3" t="s">
+      <c r="Z22" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="AA22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:26" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>81</v>
       </c>
@@ -3021,12 +3075,12 @@
       <c r="W23" s="3">
         <v>1</v>
       </c>
-      <c r="X23" s="3" t="s">
+      <c r="Z23" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="Y23"/>
-    </row>
-    <row r="24" spans="1:26" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="AA23"/>
+    </row>
+    <row r="24" spans="1:28" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>88</v>
       </c>
@@ -3097,14 +3151,14 @@
       <c r="W24" s="3">
         <v>1</v>
       </c>
-      <c r="X24" s="3" t="s">
+      <c r="Z24" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="AA24" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:26" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>88</v>
       </c>
@@ -3175,14 +3229,14 @@
       <c r="W25" s="3">
         <v>1</v>
       </c>
-      <c r="X25" s="3" t="s">
+      <c r="Z25" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="AA25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:26" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>97</v>
       </c>
@@ -3255,14 +3309,14 @@
       <c r="W26" s="3">
         <v>1</v>
       </c>
-      <c r="X26" s="3" t="s">
+      <c r="Z26" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="AA26" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:26" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>97</v>
       </c>
@@ -3335,14 +3389,14 @@
       <c r="W27" s="3">
         <v>1</v>
       </c>
-      <c r="X27" s="3" t="s">
+      <c r="Z27" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="AA27" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:26" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>97</v>
       </c>
@@ -3415,14 +3469,14 @@
       <c r="W28" s="3">
         <v>1</v>
       </c>
-      <c r="X28" s="3" t="s">
+      <c r="Z28" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="AA28" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:26" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>97</v>
       </c>
@@ -3495,14 +3549,14 @@
       <c r="W29" s="3">
         <v>1</v>
       </c>
-      <c r="X29" s="3" t="s">
+      <c r="Z29" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="AA29" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:26" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>97</v>
       </c>
@@ -3575,14 +3629,14 @@
       <c r="W30" s="3">
         <v>1</v>
       </c>
-      <c r="X30" s="3" t="s">
+      <c r="Z30" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="AA30" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:26" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>97</v>
       </c>
@@ -3655,14 +3709,14 @@
       <c r="W31" s="3">
         <v>1</v>
       </c>
-      <c r="X31" s="3" t="s">
+      <c r="Z31" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="AA31" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:26" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>97</v>
       </c>
@@ -3735,14 +3789,14 @@
       <c r="W32" s="3">
         <v>1</v>
       </c>
-      <c r="X32" s="3" t="s">
+      <c r="Z32" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="AA32" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:25" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>102</v>
       </c>
@@ -3809,14 +3863,14 @@
       <c r="W33" s="3">
         <v>0</v>
       </c>
-      <c r="X33" s="3" t="s">
+      <c r="Z33" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="Y33" s="3" t="s">
+      <c r="AA33" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:25" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>102</v>
       </c>
@@ -3886,11 +3940,11 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-      <c r="X34" s="3" t="s">
+      <c r="Z34" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:25" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>107</v>
       </c>
@@ -3961,14 +4015,14 @@
       <c r="W35" s="3">
         <v>0</v>
       </c>
-      <c r="X35" s="3" t="s">
+      <c r="Z35" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="Y35" s="3" t="s">
+      <c r="AA35" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:25" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>107</v>
       </c>
@@ -4039,11 +4093,11 @@
       <c r="W36" s="3">
         <v>0</v>
       </c>
-      <c r="X36" s="3" t="s">
+      <c r="Z36" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:25" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>107</v>
       </c>
@@ -4114,11 +4168,11 @@
       <c r="W37" s="3">
         <v>0</v>
       </c>
-      <c r="X37" s="3" t="s">
+      <c r="Z37" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>115</v>
       </c>
@@ -4191,14 +4245,18 @@
       <c r="W38" s="3">
         <v>1</v>
       </c>
-      <c r="X38" s="3" t="s">
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z38" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="AA38" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>115</v>
       </c>
@@ -4271,14 +4329,18 @@
       <c r="W39" s="3">
         <v>1</v>
       </c>
-      <c r="X39" s="3" t="s">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z39" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="AA39" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>115</v>
       </c>
@@ -4351,14 +4413,18 @@
       <c r="W40" s="3">
         <v>1</v>
       </c>
-      <c r="X40" s="3" t="s">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z40" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="AA40" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>115</v>
       </c>
@@ -4431,14 +4497,18 @@
       <c r="W41" s="3">
         <v>1</v>
       </c>
-      <c r="X41" s="3" t="s">
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z41" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="AA41" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>115</v>
       </c>
@@ -4511,14 +4581,18 @@
       <c r="W42" s="3">
         <v>1</v>
       </c>
-      <c r="X42" s="3" t="s">
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z42" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="AA42" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>115</v>
       </c>
@@ -4591,14 +4665,18 @@
       <c r="W43" s="3">
         <v>1</v>
       </c>
-      <c r="X43" s="3" t="s">
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="Z43" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="AA43" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>128</v>
       </c>
@@ -4670,11 +4748,13 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-      <c r="X44" s="3" t="s">
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:25" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>135</v>
       </c>
@@ -4748,14 +4828,14 @@
       <c r="W45" s="3">
         <v>1</v>
       </c>
-      <c r="X45" s="3" t="s">
+      <c r="Z45" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="Y45" s="3" t="s">
+      <c r="AA45" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>135</v>
       </c>
@@ -4829,8 +4909,10 @@
       <c r="W46" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+    </row>
+    <row r="47" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>135</v>
       </c>
@@ -4904,8 +4986,10 @@
       <c r="W47" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+    </row>
+    <row r="48" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>135</v>
       </c>
@@ -4979,8 +5063,10 @@
       <c r="W48" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+    </row>
+    <row r="49" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>135</v>
       </c>
@@ -5054,8 +5140,10 @@
       <c r="W49" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="X49" s="3"/>
+      <c r="Y49" s="3"/>
+    </row>
+    <row r="50" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>135</v>
       </c>
@@ -5129,8 +5217,10 @@
       <c r="W50" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3"/>
+    </row>
+    <row r="51" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>135</v>
       </c>
@@ -5204,8 +5294,10 @@
       <c r="W51" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+    </row>
+    <row r="52" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>135</v>
       </c>
@@ -5279,8 +5371,10 @@
       <c r="W52" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+    </row>
+    <row r="53" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>135</v>
       </c>
@@ -5354,8 +5448,10 @@
       <c r="W53" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+    </row>
+    <row r="54" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>135</v>
       </c>
@@ -5429,8 +5525,10 @@
       <c r="W54" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+    </row>
+    <row r="55" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>135</v>
       </c>
@@ -5504,8 +5602,10 @@
       <c r="W55" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>135</v>
       </c>
@@ -5579,8 +5679,10 @@
       <c r="W56" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>135</v>
       </c>
@@ -5654,8 +5756,10 @@
       <c r="W57" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+    </row>
+    <row r="58" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>135</v>
       </c>
@@ -5729,8 +5833,10 @@
       <c r="W58" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="X58" s="3"/>
+      <c r="Y58" s="3"/>
+    </row>
+    <row r="59" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>135</v>
       </c>
@@ -5804,8 +5910,10 @@
       <c r="W59" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="X59" s="3"/>
+      <c r="Y59" s="3"/>
+    </row>
+    <row r="60" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>135</v>
       </c>
@@ -5879,8 +5987,10 @@
       <c r="W60" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+    </row>
+    <row r="61" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>135</v>
       </c>
@@ -5954,8 +6064,10 @@
       <c r="W61" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="X61" s="3"/>
+      <c r="Y61" s="3"/>
+    </row>
+    <row r="62" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>135</v>
       </c>
@@ -6029,8 +6141,10 @@
       <c r="W62" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="X62" s="3"/>
+      <c r="Y62" s="3"/>
+    </row>
+    <row r="63" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>135</v>
       </c>
@@ -6104,8 +6218,10 @@
       <c r="W63" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:23" ht="17" x14ac:dyDescent="0.2">
+      <c r="X63" s="3"/>
+      <c r="Y63" s="3"/>
+    </row>
+    <row r="64" spans="1:25" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>135</v>
       </c>
@@ -6179,8 +6295,10 @@
       <c r="W64" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="X64" s="3"/>
+      <c r="Y64" s="3"/>
+    </row>
+    <row r="65" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>135</v>
       </c>
@@ -6254,8 +6372,10 @@
       <c r="W65" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="X65" s="3"/>
+      <c r="Y65" s="3"/>
+    </row>
+    <row r="66" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>135</v>
       </c>
@@ -6329,8 +6449,10 @@
       <c r="W66" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="X66" s="3"/>
+      <c r="Y66" s="3"/>
+    </row>
+    <row r="67" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>135</v>
       </c>
@@ -6404,8 +6526,10 @@
       <c r="W67" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>135</v>
       </c>
@@ -6479,8 +6603,10 @@
       <c r="W68" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="X68" s="3"/>
+      <c r="Y68" s="3"/>
+    </row>
+    <row r="69" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>135</v>
       </c>
@@ -6554,8 +6680,10 @@
       <c r="W69" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="X69" s="3"/>
+      <c r="Y69" s="3"/>
+    </row>
+    <row r="70" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>135</v>
       </c>
@@ -6629,8 +6757,10 @@
       <c r="W70" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+    </row>
+    <row r="71" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>135</v>
       </c>
@@ -6704,8 +6834,10 @@
       <c r="W71" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="X71" s="3"/>
+      <c r="Y71" s="3"/>
+    </row>
+    <row r="72" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>149</v>
       </c>
@@ -6775,11 +6907,13 @@
       <c r="W72" s="3">
         <v>0</v>
       </c>
-      <c r="X72" t="s">
+      <c r="X72" s="3"/>
+      <c r="Y72" s="3"/>
+      <c r="Z72" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>149</v>
       </c>
@@ -6849,11 +6983,13 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-      <c r="X73" t="s">
+      <c r="X73" s="3"/>
+      <c r="Y73" s="3"/>
+      <c r="Z73" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>149</v>
       </c>
@@ -6923,11 +7059,13 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-      <c r="X74" t="s">
+      <c r="X74" s="3"/>
+      <c r="Y74" s="3"/>
+      <c r="Z74" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>149</v>
       </c>
@@ -6997,11 +7135,13 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-      <c r="X75" t="s">
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+      <c r="Z75" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>149</v>
       </c>
@@ -7071,11 +7211,13 @@
       <c r="W76" s="3">
         <v>0</v>
       </c>
-      <c r="X76" t="s">
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>162</v>
       </c>
@@ -7143,14 +7285,16 @@
         <v>22</v>
       </c>
       <c r="V77">
-        <f>R77/S77</f>
+        <f t="shared" ref="V77:V82" si="7">R77/S77</f>
         <v>0.99094624422034439</v>
       </c>
       <c r="W77" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
+    </row>
+    <row r="78" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>162</v>
       </c>
@@ -7218,14 +7362,16 @@
         <v>22</v>
       </c>
       <c r="V78">
-        <f>R78/S78</f>
+        <f t="shared" si="7"/>
         <v>0.98496106206154332</v>
       </c>
       <c r="W78" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+    </row>
+    <row r="79" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>162</v>
       </c>
@@ -7292,14 +7438,16 @@
         <v>22</v>
       </c>
       <c r="V79">
-        <f>R79/S79</f>
+        <f t="shared" si="7"/>
         <v>0.99093378806600763</v>
       </c>
       <c r="W79" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:24" ht="17" x14ac:dyDescent="0.2">
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
+    </row>
+    <row r="80" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>162</v>
       </c>
@@ -7365,14 +7513,16 @@
         <v>22</v>
       </c>
       <c r="V80">
-        <f t="shared" ref="V80:V81" si="7">R80/S80</f>
+        <f t="shared" si="7"/>
         <v>0.95149355518574619</v>
       </c>
       <c r="W80" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+    </row>
+    <row r="81" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>162</v>
       </c>
@@ -7444,8 +7594,10 @@
       <c r="W81" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:25" ht="17" x14ac:dyDescent="0.2">
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+    </row>
+    <row r="82" spans="1:27" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>162</v>
       </c>
@@ -7513,17 +7665,19 @@
         <v>22</v>
       </c>
       <c r="V82">
-        <f>R82/S82</f>
+        <f t="shared" si="7"/>
         <v>0.97029702970297027</v>
       </c>
       <c r="W82" s="3">
         <v>1</v>
       </c>
-      <c r="X82" t="s">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="83" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>177</v>
       </c>
@@ -7593,14 +7747,16 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-      <c r="X83" t="s">
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+      <c r="Z83" t="s">
         <v>179</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="AA83" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="84" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>177</v>
       </c>
@@ -7670,8 +7826,10 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+    </row>
+    <row r="85" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>177</v>
       </c>
@@ -7741,8 +7899,10 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+      <c r="X85" s="3"/>
+      <c r="Y85" s="3"/>
+    </row>
+    <row r="86" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>177</v>
       </c>
@@ -7812,8 +7972,10 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+    </row>
+    <row r="87" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>177</v>
       </c>
@@ -7883,11 +8045,13 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="X87" s="3"/>
+      <c r="Y87" s="3"/>
+      <c r="AA87" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="88" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>177</v>
       </c>
@@ -7957,8 +8121,10 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:25" ht="34" x14ac:dyDescent="0.2">
+      <c r="X88" s="3"/>
+      <c r="Y88" s="3"/>
+    </row>
+    <row r="89" spans="1:27" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>177</v>
       </c>
@@ -8028,8 +8194,10 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:25" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="X89" s="3"/>
+      <c r="Y89" s="3"/>
+    </row>
+    <row r="90" spans="1:27" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>196</v>
       </c>
@@ -8097,18 +8265,14 @@
         <v>22</v>
       </c>
       <c r="V90">
-        <f>R90/S90</f>
+        <f t="shared" ref="V90:V99" si="8">R90/S90</f>
         <v>0.92238053758088601</v>
       </c>
       <c r="W90" s="3">
         <v>1</v>
       </c>
-      <c r="X90" s="3" t="b">
-        <f>R90=V90</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:25" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:27" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>196</v>
       </c>
@@ -8176,14 +8340,14 @@
         <v>22</v>
       </c>
       <c r="V91">
-        <f t="shared" ref="V91:V109" si="8">R91/S91</f>
+        <f t="shared" si="8"/>
         <v>0.96101916376306618</v>
       </c>
       <c r="W91" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:25" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>196</v>
       </c>
@@ -8250,14 +8414,14 @@
         <v>22</v>
       </c>
       <c r="V92">
-        <f>R92/S92</f>
+        <f t="shared" si="8"/>
         <v>0.9193628670980587</v>
       </c>
       <c r="W92" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:25" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>196</v>
       </c>
@@ -8331,7 +8495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:25" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>196</v>
       </c>
@@ -8405,7 +8569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:25" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>196</v>
       </c>
@@ -8479,7 +8643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:25" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>196</v>
       </c>
@@ -8825,14 +8989,14 @@
         <v>9</v>
       </c>
       <c r="Q100" s="3">
-        <f>1864/S100</f>
+        <f t="shared" ref="Q100:Q109" si="9">1864/S100</f>
         <v>0.51293340671436438</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>22</v>
       </c>
       <c r="S100" s="3">
-        <f>662+1864+208+306+132+368+94</f>
+        <f t="shared" ref="S100:S109" si="10">662+1864+208+306+132+368+94</f>
         <v>3634</v>
       </c>
       <c r="T100" s="3">
@@ -8841,8 +9005,8 @@
       <c r="U100" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V100" s="16">
-        <v>0.99</v>
+      <c r="V100" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W100" s="3">
         <v>1</v>
@@ -8898,14 +9062,14 @@
         <v>9</v>
       </c>
       <c r="Q101" s="3">
-        <f t="shared" ref="Q101:Q109" si="9">1864/S101</f>
+        <f t="shared" si="9"/>
         <v>0.51293340671436438</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>22</v>
       </c>
       <c r="S101" s="3">
-        <f t="shared" ref="S101:S109" si="10">662+1864+208+306+132+368+94</f>
+        <f t="shared" si="10"/>
         <v>3634</v>
       </c>
       <c r="T101" s="3">
@@ -8914,8 +9078,8 @@
       <c r="U101" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V101" s="16">
-        <v>0.99</v>
+      <c r="V101" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W101" s="3">
         <v>1</v>
@@ -8987,8 +9151,8 @@
       <c r="U102" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V102" s="16">
-        <v>0.99</v>
+      <c r="V102" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W102" s="3">
         <v>1</v>
@@ -9060,8 +9224,8 @@
       <c r="U103" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V103" s="16">
-        <v>0.99</v>
+      <c r="V103" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W103" s="3">
         <v>1</v>
@@ -9133,8 +9297,8 @@
       <c r="U104" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V104" s="16">
-        <v>0.99</v>
+      <c r="V104" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W104" s="3">
         <v>1</v>
@@ -9206,8 +9370,8 @@
       <c r="U105" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V105" s="16">
-        <v>0.99</v>
+      <c r="V105" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W105" s="3">
         <v>1</v>
@@ -9279,8 +9443,8 @@
       <c r="U106" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V106" s="16">
-        <v>0.99</v>
+      <c r="V106" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W106" s="3">
         <v>1</v>
@@ -9352,8 +9516,8 @@
       <c r="U107" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V107" s="16">
-        <v>0.99</v>
+      <c r="V107" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W107" s="3">
         <v>1</v>
@@ -9425,8 +9589,8 @@
       <c r="U108" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V108" s="16">
-        <v>0.99</v>
+      <c r="V108" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W108" s="3">
         <v>1</v>
@@ -9498,8 +9662,8 @@
       <c r="U109" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V109" s="16">
-        <v>0.99</v>
+      <c r="V109" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W109" s="3">
         <v>1</v>
@@ -9555,14 +9719,14 @@
         <v>7</v>
       </c>
       <c r="Q110" s="3">
-        <f>678/S110</f>
+        <f t="shared" ref="Q110:Q119" si="11">678/S110</f>
         <v>0.3617929562433298</v>
       </c>
       <c r="R110" s="3" t="s">
         <v>22</v>
       </c>
       <c r="S110" s="3">
-        <f>(232+166+678+176+210+278+134)</f>
+        <f t="shared" ref="S110:S119" si="12">(232+166+678+176+210+278+134)</f>
         <v>1874</v>
       </c>
       <c r="T110" s="3">
@@ -9571,8 +9735,8 @@
       <c r="U110" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V110" s="16">
-        <v>0.99</v>
+      <c r="V110" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W110" s="3">
         <v>1</v>
@@ -9628,14 +9792,14 @@
         <v>7</v>
       </c>
       <c r="Q111" s="3">
-        <f t="shared" ref="Q111:Q119" si="11">678/S111</f>
+        <f t="shared" si="11"/>
         <v>0.3617929562433298</v>
       </c>
       <c r="R111" s="3" t="s">
         <v>22</v>
       </c>
       <c r="S111" s="3">
-        <f t="shared" ref="S111:S119" si="12">(232+166+678+176+210+278+134)</f>
+        <f t="shared" si="12"/>
         <v>1874</v>
       </c>
       <c r="T111" s="3">
@@ -9644,8 +9808,8 @@
       <c r="U111" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V111" s="16">
-        <v>0.99</v>
+      <c r="V111" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W111" s="3">
         <v>1</v>
@@ -9717,8 +9881,8 @@
       <c r="U112" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V112" s="16">
-        <v>0.99</v>
+      <c r="V112" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W112" s="3">
         <v>1</v>
@@ -9790,8 +9954,8 @@
       <c r="U113" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V113" s="16">
-        <v>0.99</v>
+      <c r="V113" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W113" s="3">
         <v>1</v>
@@ -9863,8 +10027,8 @@
       <c r="U114" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V114" s="16">
-        <v>0.99</v>
+      <c r="V114" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W114" s="3">
         <v>1</v>
@@ -9936,8 +10100,8 @@
       <c r="U115" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V115" s="16">
-        <v>0.99</v>
+      <c r="V115" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W115" s="3">
         <v>1</v>
@@ -10009,8 +10173,8 @@
       <c r="U116" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V116" s="16">
-        <v>0.99</v>
+      <c r="V116" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W116" s="3">
         <v>1</v>
@@ -10082,8 +10246,8 @@
       <c r="U117" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V117" s="16">
-        <v>0.99</v>
+      <c r="V117" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W117" s="3">
         <v>1</v>
@@ -10155,8 +10319,8 @@
       <c r="U118" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V118" s="16">
-        <v>0.99</v>
+      <c r="V118" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W118" s="3">
         <v>1</v>
@@ -10228,8 +10392,8 @@
       <c r="U119" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V119" s="16">
-        <v>0.99</v>
+      <c r="V119" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W119" s="3">
         <v>1</v>
@@ -10285,14 +10449,14 @@
         <v>10</v>
       </c>
       <c r="Q120" s="3">
-        <f>157248/S120</f>
+        <f t="shared" ref="Q120:Q129" si="13">157248/S120</f>
         <v>0.39100466476362877</v>
       </c>
       <c r="R120" s="3" t="s">
         <v>22</v>
       </c>
       <c r="S120" s="3">
-        <f>(32238+37189+58612+27053+23412+157248+4920+43520+12632+5340)</f>
+        <f t="shared" ref="S120:S129" si="14">(32238+37189+58612+27053+23412+157248+4920+43520+12632+5340)</f>
         <v>402164</v>
       </c>
       <c r="T120" s="3">
@@ -10301,8 +10465,8 @@
       <c r="U120" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V120" s="16">
-        <v>0.99</v>
+      <c r="V120" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W120" s="3">
         <v>1</v>
@@ -10358,14 +10522,14 @@
         <v>10</v>
       </c>
       <c r="Q121" s="3">
-        <f t="shared" ref="Q121:Q129" si="13">157248/S121</f>
+        <f t="shared" si="13"/>
         <v>0.39100466476362877</v>
       </c>
       <c r="R121" s="3" t="s">
         <v>22</v>
       </c>
       <c r="S121" s="3">
-        <f t="shared" ref="S121:S129" si="14">(32238+37189+58612+27053+23412+157248+4920+43520+12632+5340)</f>
+        <f t="shared" si="14"/>
         <v>402164</v>
       </c>
       <c r="T121" s="3">
@@ -10374,8 +10538,8 @@
       <c r="U121" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V121" s="16">
-        <v>0.99</v>
+      <c r="V121" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W121" s="3">
         <v>1</v>
@@ -10447,8 +10611,8 @@
       <c r="U122" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V122" s="16">
-        <v>0.99</v>
+      <c r="V122" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W122" s="3">
         <v>1</v>
@@ -10520,8 +10684,8 @@
       <c r="U123" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V123" s="16">
-        <v>0.99</v>
+      <c r="V123" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W123" s="3">
         <v>1</v>
@@ -10593,8 +10757,8 @@
       <c r="U124" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V124" s="16">
-        <v>0.99</v>
+      <c r="V124" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W124" s="3">
         <v>1</v>
@@ -10666,8 +10830,8 @@
       <c r="U125" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V125" s="16">
-        <v>0.99</v>
+      <c r="V125" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W125" s="3">
         <v>1</v>
@@ -10739,8 +10903,8 @@
       <c r="U126" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V126" s="16">
-        <v>0.99</v>
+      <c r="V126" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W126" s="3">
         <v>1</v>
@@ -10812,8 +10976,8 @@
       <c r="U127" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V127" s="16">
-        <v>0.99</v>
+      <c r="V127" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W127" s="3">
         <v>1</v>
@@ -10885,8 +11049,8 @@
       <c r="U128" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V128" s="16">
-        <v>0.99</v>
+      <c r="V128" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W128" s="3">
         <v>1</v>
@@ -10958,8 +11122,8 @@
       <c r="U129" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V129" s="16">
-        <v>0.99</v>
+      <c r="V129" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W129" s="3">
         <v>1</v>
@@ -11015,14 +11179,14 @@
         <v>6</v>
       </c>
       <c r="Q130" s="3">
-        <f>14504/S130</f>
+        <f t="shared" ref="Q130:Q139" si="15">14504/S130</f>
         <v>0.32581543714619465</v>
       </c>
       <c r="R130" s="3" t="s">
         <v>22</v>
       </c>
       <c r="S130" s="3">
-        <f>(14504+3600+3504+11742+10598+568)</f>
+        <f t="shared" ref="S130:S139" si="16">(14504+3600+3504+11742+10598+568)</f>
         <v>44516</v>
       </c>
       <c r="T130" s="3">
@@ -11031,8 +11195,8 @@
       <c r="U130" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V130" s="16">
-        <v>0.99</v>
+      <c r="V130" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W130" s="3">
         <v>1</v>
@@ -11088,14 +11252,14 @@
         <v>6</v>
       </c>
       <c r="Q131" s="3">
-        <f t="shared" ref="Q131:Q139" si="15">14504/S131</f>
+        <f t="shared" si="15"/>
         <v>0.32581543714619465</v>
       </c>
       <c r="R131" s="3" t="s">
         <v>22</v>
       </c>
       <c r="S131" s="3">
-        <f t="shared" ref="S131:S139" si="16">(14504+3600+3504+11742+10598+568)</f>
+        <f t="shared" si="16"/>
         <v>44516</v>
       </c>
       <c r="T131" s="3">
@@ -11104,8 +11268,8 @@
       <c r="U131" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V131" s="16">
-        <v>0.99</v>
+      <c r="V131" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W131" s="3">
         <v>1</v>
@@ -11177,8 +11341,8 @@
       <c r="U132" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V132" s="16">
-        <v>0.99</v>
+      <c r="V132" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W132" s="3">
         <v>1</v>
@@ -11250,8 +11414,8 @@
       <c r="U133" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V133" s="16">
-        <v>0.99</v>
+      <c r="V133" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W133" s="3">
         <v>1</v>
@@ -11323,8 +11487,8 @@
       <c r="U134" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V134" s="16">
-        <v>0.99</v>
+      <c r="V134" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W134" s="3">
         <v>1</v>
@@ -11396,8 +11560,8 @@
       <c r="U135" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V135" s="16">
-        <v>0.99</v>
+      <c r="V135" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W135" s="3">
         <v>1</v>
@@ -11469,8 +11633,8 @@
       <c r="U136" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V136" s="16">
-        <v>0.99</v>
+      <c r="V136" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W136" s="3">
         <v>1</v>
@@ -11542,8 +11706,8 @@
       <c r="U137" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V137" s="16">
-        <v>0.99</v>
+      <c r="V137" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W137" s="3">
         <v>1</v>
@@ -11615,8 +11779,8 @@
       <c r="U138" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V138" s="16">
-        <v>0.99</v>
+      <c r="V138" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W138" s="3">
         <v>1</v>
@@ -11688,8 +11852,8 @@
       <c r="U139" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="V139" s="16">
-        <v>0.99</v>
+      <c r="V139" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="W139" s="3">
         <v>1</v>
@@ -11703,15 +11867,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA26DCC8-0EBD-CD40-8801-B65C68DC3FA0}">
-  <dimension ref="A1:Z8"/>
+  <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11791,7 +11955,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>156</v>
       </c>
@@ -11970,6 +12134,62 @@
       </c>
       <c r="Z8" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="M12" s="7">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
